--- a/data/trans_camb/P1408-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P1408-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-4.431476833923828</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-1.880229867284439</v>
+        <v>-1.880229867284437</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-2.269074380628412</v>
@@ -664,7 +664,7 @@
         <v>-2.987838675906469</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.08287371574904334</v>
+        <v>0.08287371574904404</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.920484940780221</v>
+        <v>-6.967221580515691</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.83420561837778</v>
+        <v>-6.931959573890285</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.099175265019575</v>
+        <v>-4.902325277053149</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.897201715764898</v>
+        <v>-3.832440090854446</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.745091699229042</v>
+        <v>-3.808320344030018</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.7887438955804494</v>
+        <v>-0.5029235184741448</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-4.301507020561698</v>
+        <v>-4.364998454159241</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-4.325690133989369</v>
+        <v>-4.418534928954831</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.460502243688271</v>
+        <v>-1.631684876775968</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-2.055246110902988</v>
+        <v>-2.013755352145456</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-2.308159086831536</v>
+        <v>-2.39943080929634</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7105468896875975</v>
+        <v>1.102653900018737</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.748632986844643</v>
+        <v>-0.9241321570214305</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.7198077826518232</v>
+        <v>-0.8955471501824784</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.47511958711808</v>
+        <v>3.603939801304604</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-1.684538219390065</v>
+        <v>-1.770327113492542</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-1.79298415018306</v>
+        <v>-1.822485309628406</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.847112814558736</v>
+        <v>1.945899782240498</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.6197449370162423</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.2629513781401123</v>
+        <v>-0.262951378140112</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.5822229720193817</v>
@@ -769,7 +769,7 @@
         <v>-0.5791832088448065</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.01606481133117438</v>
+        <v>0.01606481133117451</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7565790463213073</v>
+        <v>-0.7669518867436189</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7627989525454523</v>
+        <v>-0.7669661452354589</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5698190287726614</v>
+        <v>-0.5465747703848531</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.7734592684397863</v>
+        <v>-0.7937554520354849</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7754835467536462</v>
+        <v>-0.7522338676043487</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.165406845193578</v>
+        <v>-0.120473413623126</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.7101964466629813</v>
+        <v>-0.7125910067623475</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.710707220092154</v>
+        <v>-0.7125381152986009</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.245129123589672</v>
+        <v>-0.2699698809701572</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.3430746554042705</v>
+        <v>-0.3528601960876493</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.3926599158228388</v>
+        <v>-0.4097265911467034</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1391718291656004</v>
+        <v>0.2117614602511395</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.2273380184072313</v>
+        <v>-0.2662327717521792</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.2590911008542386</v>
+        <v>-0.2683206420729503</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.150229628712007</v>
+        <v>1.174434578001285</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.3678141102416875</v>
+        <v>-0.3942221755531604</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.4171432091117641</v>
+        <v>-0.4020028392163149</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.4090063831430323</v>
+        <v>0.4445922204801329</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-2.109930692824728</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-1.445345579282461</v>
+        <v>-1.445345579282462</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-1.51455412971864</v>
@@ -878,7 +878,7 @@
         <v>-1.844325771097684</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-0.7228862380091617</v>
+        <v>-0.7228862380091614</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.775017802117597</v>
+        <v>-3.810840723803761</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.704503194799828</v>
+        <v>-3.630826038825391</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.218434419745698</v>
+        <v>-3.145821823673403</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.689939790277144</v>
+        <v>-2.616102671682295</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.862678243269909</v>
+        <v>-2.783687691318269</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.241944732432819</v>
+        <v>-1.19573151052243</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.809535435305628</v>
+        <v>-2.827025457446</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.753113120904787</v>
+        <v>-2.837829174399247</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.645088928749084</v>
+        <v>-1.651806742403451</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.9100166517651236</v>
+        <v>-0.8471479314388219</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.612159280978247</v>
+        <v>-0.7083869162832805</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01432528424101522</v>
+        <v>-0.004892503665656316</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.4694421512373671</v>
+        <v>-0.4737271348597177</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.4384705657188854</v>
+        <v>-0.4501672132143163</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.4743669834897</v>
+        <v>1.284243417879558</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-1.053524191194839</v>
+        <v>-1.061323254811088</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.83565493840817</v>
+        <v>-0.9748636651042241</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3791331103368257</v>
+        <v>0.2271551296999825</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.5089886891587367</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.3486676383646819</v>
+        <v>-0.3486676383646822</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.6093238465865676</v>
@@ -983,7 +983,7 @@
         <v>-0.554952233190203</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.2175143558759074</v>
+        <v>-0.2175143558759073</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.7581867359488648</v>
+        <v>-0.7447993062688765</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7241667951157309</v>
+        <v>-0.7277585109599736</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.607853806934406</v>
+        <v>-0.6022787855634993</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.8403407822263064</v>
+        <v>-0.8056181935907035</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8343463991311997</v>
+        <v>-0.8406468595951041</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3921047809762282</v>
+        <v>-0.3918181224953203</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.7277828275024928</v>
+        <v>-0.7335949589441102</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.712320450743971</v>
+        <v>-0.7193891915395142</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4367960642041788</v>
+        <v>-0.4259696825444012</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.238044296191428</v>
+        <v>-0.2061458042804714</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.1762892722661883</v>
+        <v>-0.1638304776533719</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.03361322082839743</v>
+        <v>0.01783348050470556</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.2044436759515592</v>
+        <v>-0.1768629953199071</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.2080752027654308</v>
+        <v>-0.2041528776517072</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.9071773305462575</v>
+        <v>0.701891707886628</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.3680979368024668</v>
+        <v>-0.3536813648788772</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.2872226611132929</v>
+        <v>-0.3182900276770491</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.1450609946653481</v>
+        <v>0.09658790213613054</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-1.991176765628969</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-1.454948304421008</v>
+        <v>-1.454948304421009</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-0.5818193371769241</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.619418528761127</v>
+        <v>-2.537602216011551</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.393502264161255</v>
+        <v>-3.338179176648469</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.810524829365756</v>
+        <v>-2.813465598690605</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.687087169583722</v>
+        <v>-1.66034603843258</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.096024985881964</v>
+        <v>-1.223586175353654</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.196241708403522</v>
+        <v>-1.160244215089911</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.852430352945829</v>
+        <v>-1.777064701166973</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.884418747301917</v>
+        <v>-1.904770282190211</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.707590860000595</v>
+        <v>-1.704464504036807</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6714050122685001</v>
+        <v>0.5240441992900008</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.7102277930764386</v>
+        <v>-0.6522236748429386</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.2235915868945287</v>
+        <v>-0.2361224229761881</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4754799925774915</v>
+        <v>0.4292403138603095</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.382050420775762</v>
+        <v>1.22726690425141</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7749727390680377</v>
+        <v>0.7705013829200369</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.05480272203868456</v>
+        <v>0.1312966628087964</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-0.1288798177770971</v>
+        <v>-0.1604523333635129</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-0.07767083900603101</v>
+        <v>0.03351300675328785</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.5962094308889742</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.4356488663012888</v>
+        <v>-0.435648866301289</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.3480355124393565</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.6444475926979651</v>
+        <v>-0.6325109563873207</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.8042038818773756</v>
+        <v>-0.8127936351306629</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.673098861774598</v>
+        <v>-0.6658236415294035</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.7540615998203305</v>
+        <v>-0.7399837684571807</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5288566490362007</v>
+        <v>-0.5797779898312059</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4996950344006847</v>
+        <v>-0.4936238499420261</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.6136535770420086</v>
+        <v>-0.5859255715657118</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.6367550200972787</v>
+        <v>-0.6493287845592742</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.5508160943292125</v>
+        <v>-0.542060209947541</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2920483986059389</v>
+        <v>0.2485544103602719</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.2331398066109923</v>
+        <v>-0.233519207722276</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.06907057500017111</v>
+        <v>-0.04437771182098461</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4985937763300031</v>
+        <v>0.4217248389198827</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.407124988372786</v>
+        <v>1.132896294187836</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7189396482171592</v>
+        <v>0.6820195296057604</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04795452064975144</v>
+        <v>0.08970159782038195</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.02547445620484914</v>
+        <v>-0.04783280923270791</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.01830653039070091</v>
+        <v>0.03400657352794662</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>-2.143792633821556</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-0.5331840903081628</v>
+        <v>-0.5331840903081632</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-1.176448849910327</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.490718297450857</v>
+        <v>-2.416808992598492</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.230229599542016</v>
+        <v>-2.607376194309995</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.857283391846804</v>
+        <v>-1.679652108267658</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.93796334685722</v>
+        <v>-3.826134288693355</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.169460741680355</v>
+        <v>-4.473905412225192</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.63738947713035</v>
+        <v>-2.896198823747397</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.458286096707448</v>
+        <v>-2.513630970521221</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.649138399517128</v>
+        <v>-2.662660313387653</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.493130974962741</v>
+        <v>-1.615696048840251</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6321528281835471</v>
+        <v>0.6683735682251977</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.150777835760975</v>
+        <v>0.8671104996599621</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.329700965233319</v>
+        <v>1.148706557718218</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.03521229335501744</v>
+        <v>0.1082402955592427</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.5770069901160751</v>
+        <v>-0.4696586835386626</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.201591338584387</v>
+        <v>1.071538951284568</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-0.01325112796500414</v>
+        <v>-0.006201674420152898</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.08703380619238857</v>
+        <v>-0.1652755723338778</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.8760144557623806</v>
+        <v>0.8696667238993639</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>-0.8423389358858471</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.2094986763998858</v>
+        <v>-0.209498676399886</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.5468067207827104</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.8744624080240719</v>
+        <v>-0.8560741429186054</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.8326697972313756</v>
+        <v>-0.861172204806524</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5878431753880309</v>
+        <v>-0.5954407049992596</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.9162055546962593</v>
+        <v>-0.9306268442229336</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.6406711851439075</v>
+        <v>-0.6553845680443269</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.8118003408595433</v>
+        <v>-0.807679896866822</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.8611816505129561</v>
+        <v>-0.8609172933394746</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.4923718230211439</v>
+        <v>-0.4950751552269451</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.00010857107557</v>
+        <v>0.9666685780220298</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.628297685013218</v>
+        <v>1.056386735120573</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.755860482612778</v>
+        <v>1.366952646842037</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.234440913974845</v>
+        <v>0.2587151891659287</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.1299800234258555</v>
+        <v>-0.148337049748984</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.137259050722794</v>
+        <v>0.9447024112854204</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.07611977923748983</v>
+        <v>0.09756734194222975</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.02421136756033217</v>
+        <v>-0.042631661435122</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.7106802944186178</v>
+        <v>0.673890803623325</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-2.117168455614507</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-1.525988776622176</v>
+        <v>-1.525988776622177</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-1.440244437432523</v>
@@ -1511,7 +1511,7 @@
         <v>-1.349798662135404</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-0.06489834127525809</v>
+        <v>-0.06489834127525775</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-1.685224526438739</v>
@@ -1520,7 +1520,7 @@
         <v>-1.732066648025003</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-0.7859698618925347</v>
+        <v>-0.785969861892535</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.798535021002509</v>
+        <v>-2.784200400172377</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.986948868980396</v>
+        <v>-2.997441864004657</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.345445398143438</v>
+        <v>-2.484928071059997</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.133258065864397</v>
+        <v>-2.151807746143812</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.016404418996247</v>
+        <v>-2.028124328459805</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.8198867597539374</v>
+        <v>-0.8294298132995599</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.20541046299121</v>
+        <v>-2.255647207972343</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-2.254663353158869</v>
+        <v>-2.322620044343833</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-1.346425081099764</v>
+        <v>-1.394006733691542</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-1.078540682758014</v>
+        <v>-1.039533751993673</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-1.320199313402768</v>
+        <v>-1.326590104511672</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.7343408883682104</v>
+        <v>-0.7509274020672848</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-0.8300040098711411</v>
+        <v>-0.8121589131097685</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.6338958779667165</v>
+        <v>-0.7036300179505728</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.6266950640639906</v>
+        <v>0.6297603622762289</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-1.147323125507861</v>
+        <v>-1.14834620037993</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-1.178844003910855</v>
+        <v>-1.217983382837828</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-0.1911999354436128</v>
+        <v>-0.2591257034582081</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.5174596020072277</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.3729686898198262</v>
+        <v>-0.3729686898198263</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.5454499259263009</v>
@@ -1616,7 +1616,7 @@
         <v>-0.5111962672042398</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.02457832470745981</v>
+        <v>-0.02457832470745968</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.5020565563833616</v>
@@ -1625,7 +1625,7 @@
         <v>-0.5160116074097005</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.234153560010638</v>
+        <v>-0.2341535600106381</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6146388536706339</v>
+        <v>-0.6019245752082684</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.6438065645354152</v>
+        <v>-0.6534084945112022</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5120767484184234</v>
+        <v>-0.5221467360670115</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.6927561900141108</v>
+        <v>-0.6957076542089927</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.6638902328462928</v>
+        <v>-0.6568176168373696</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2607955996037519</v>
+        <v>-0.27597409571551</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.6027091090033549</v>
+        <v>-0.6147397839564339</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.6120698847605951</v>
+        <v>-0.6243307494967651</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3640621053036894</v>
+        <v>-0.3698952086780297</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.296435735026938</v>
+        <v>-0.2642944098751115</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.3537748624096626</v>
+        <v>-0.3700318443619212</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.198056491872177</v>
+        <v>-0.1993445406384561</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.3473345181758257</v>
+        <v>-0.3449980961460379</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.2737389068044155</v>
+        <v>-0.2906097029734148</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2742061490802226</v>
+        <v>0.2870345102961036</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.380759498178163</v>
+        <v>-0.3770298354425506</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.3856574963037727</v>
+        <v>-0.3982512773313013</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.06770390317366599</v>
+        <v>-0.07957314725594218</v>
       </c>
     </row>
     <row r="34">
